--- a/ModelingV0/output/data/instance_2.xlsx
+++ b/ModelingV0/output/data/instance_2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,181 +456,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.85633333333333</v>
+        <v>8.898666666666665</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.598000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.598000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.792333333333334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.792333333333334</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.598</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.70833333333333</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.910333333333334</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.156000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.708333333333334</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>16.54033333333333</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.631666666666666</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,297 +512,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['F3', 'SBS2', 'MBS1', 'MBS2', 'SBS5', 'UE8']</t>
+          <t>['F5', 'SBS4', 'UE11']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F5']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['UE8']</t>
+          <t>['UE11']</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.85633333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['F7', 'SBS4', 'UE7']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['F7']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['UE7']</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.598000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS4', 'UE7']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['UE7']</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.598000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>['F3', 'SBS2', 'UE5']</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['F3']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['UE5']</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>8.792333333333334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['F2', 'SBS2', 'UE5']</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['F2']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['UE5']</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.792333333333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>['F3', 'SBS2', 'MBS1', 'MBS2', 'SBS4', 'UE7']</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['F3']</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['UE7']</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.598</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['F7', 'MBS2', 'SBS6', 'UE10']</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['F7']</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['UE10']</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.70833333333333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS2', 'UE2']</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['UE2']</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6.910333333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>['F1', 'MBS1', 'UE1']</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['UE1']</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>['F7', 'SBS1', 'UE4']</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['F7']</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['UE4']</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>7.156000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS6', 'UE10']</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['UE10']</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>9.708333333333334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>['F3', 'SBS2', 'MBS1', 'MBS2', 'SBS5', 'UE6']</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['F3']</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>['UE6']</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>16.54033333333333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>['F2', 'SBS3', 'UE9']</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['F2']</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>['UE9']</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>9.631666666666666</v>
+        <v>8.898666666666665</v>
       </c>
     </row>
   </sheetData>
